--- a/biology/Zoologie/Conus_trochulus/Conus_trochulus.xlsx
+++ b/biology/Zoologie/Conus_trochulus/Conus_trochulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conus trochulus est une espèce de mollusques de la famille des Conidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conus trochulus est une espèce de mollusques de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces mollusques sont prédateurs et venimeux. Ils sont capables de « piquer » les humains, par conséquent les animaux vivants doivent être manipulés avec précaution ou pas du tout.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 18 mm et 50 mm. Elle est blanche, avec généralement une teinte violette. L'intérieur de l'ouverture est violet clair[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 18 mm et 50 mm. Elle est blanche, avec généralement une teinte violette. L'intérieur de l'ouverture est violet clair.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large des îles de Boa Vista et de Maio, au Cap-Vert[1]. Elle est classée par l'UICN comme presque menacée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large des îles de Boa Vista et de Maio, au Cap-Vert. Elle est classée par l'UICN comme presque menacée.
 </t>
         </is>
       </c>
